--- a/Braki z dictionary_report.xlsx
+++ b/Braki z dictionary_report.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A4:B365"/>
+  <dimension ref="A4:D365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,17 @@
           <t>sample3-PRT-A0065981</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Osłona 3</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -439,7 +449,17 @@
           <t>sample3-PRT-A0062094</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Płytka łącząca</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -449,7 +469,17 @@
           <t>sample3-PRT-A0065974</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Osłona 2</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -459,7 +489,17 @@
           <t>PRT-A0065972</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Osłona</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -469,7 +509,17 @@
           <t>sample3-000.MAG.22.M8</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Kostka zderzaka</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -479,7 +529,17 @@
           <t>PRT-A0068851</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Płyta dolna</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -489,7 +549,17 @@
           <t>sample3-PRT-A0068849</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Mocowanie siłownika 1</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -499,7 +569,17 @@
           <t>sample3-PRT-A0068848</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Mocowanie siłownika 2</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -509,7 +589,17 @@
           <t>sample3-PRT-A0068847</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Płyta pionowa</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -519,7 +609,17 @@
           <t>sample3-PRT-A0068852</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tulejka </t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -529,7 +629,17 @@
           <t>PRT-A0068850</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Uchwyt sprzęgła</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -539,7 +649,17 @@
           <t>PRT-A0068846</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Uchwyt sprzęgła 2</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -549,7 +669,17 @@
           <t>PRT-A0068844</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Płytka boczna</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>2</v>
       </c>
     </row>
@@ -559,7 +689,17 @@
           <t>PRT-A0068842</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Mocowanie wypychacza</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -569,7 +709,17 @@
           <t>PRT-A0068841</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Gniazdo górne pina</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -579,7 +729,17 @@
           <t>PRT-A0068841-Lustro</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Gniazdo górne pina-Lustro</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -589,7 +749,17 @@
           <t>PRT-A0068857</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Tuleja prowadząca</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -599,7 +769,17 @@
           <t>PRT-A0068858</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Gniazdo pina</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -609,7 +789,17 @@
           <t>PRT-A0068856</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Tuleja końcowa</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -619,7 +809,17 @@
           <t>PRT-A0068855</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Wałek gwintowany</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -629,7 +829,17 @@
           <t>PRT-A0068854</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Nakrętka</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -639,7 +849,17 @@
           <t>PRT-A0068853</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Nakrętka 2</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -649,7 +869,17 @@
           <t>PRT-A0068845</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Blaszka boczna</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -659,7 +889,17 @@
           <t>PRT-A0068777</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Mocowanie prowadnika 2</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -669,7 +909,17 @@
           <t>PRT-A0068776</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Mocowanie prowadnika</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -679,7 +929,17 @@
           <t>PRT-A0068787</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Wałek docisku</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
         <v>4</v>
       </c>
     </row>
@@ -689,7 +949,17 @@
           <t>PRT-A0068781</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Dystans blokady</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -699,7 +969,17 @@
           <t>PRT-A0068785</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Płyta pionowa</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -709,7 +989,17 @@
           <t>PRT-A0068784</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Płytka dolna</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -719,7 +1009,17 @@
           <t>PRT-A0068783</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Płytka przednia</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -729,7 +1029,17 @@
           <t>PRT-A0068782</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Żebro 2</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -739,7 +1049,17 @@
           <t>PRT-A0068780</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Mocowanie siłownika</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -749,7 +1069,17 @@
           <t>PRT-A0068779</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Mocowanie sprzęgła</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -759,7 +1089,17 @@
           <t>PRT-A0068778</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Żebro</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -769,7 +1109,17 @@
           <t>PRT-A0068786</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Oprawa łożysk</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -779,7 +1129,17 @@
           <t>PRT-A0068862</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Płyta narzędzia</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -789,7 +1149,17 @@
           <t>PRT-A0068861</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Płytka narożna</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
         <v>4</v>
       </c>
     </row>
@@ -799,7 +1169,17 @@
           <t>PRT-A0068860</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Płytka środkowa</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
         <v>2</v>
       </c>
     </row>
@@ -809,7 +1189,17 @@
           <t>PRT-A0068859</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Ślizg</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -819,7 +1209,17 @@
           <t>PRT-A0069838</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Uchwyt czujnika</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -829,7 +1229,17 @@
           <t>PRT-A0069838-Lustro</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Uchwyt czujnika</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -839,7 +1249,17 @@
           <t xml:space="preserve"> PRT-A0070324 </t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Uchwyt czujnika</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -849,7 +1269,17 @@
           <t>000.MAG.50 - M6 x30</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Śruba separująca</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
         <v>7</v>
       </c>
     </row>
@@ -859,7 +1289,17 @@
           <t>000.MAG.50 - M5x30</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Śruba separujaca</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -869,7 +1309,17 @@
           <t>000.MAG.22.M6H</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Kostka zderzaka</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
         <v>4</v>
       </c>
     </row>
@@ -879,7 +1329,17 @@
           <t>000.MAG.22.M6</t>
         </is>
       </c>
-      <c r="B49" t="n">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Kostka zderzaka</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
         <v>4</v>
       </c>
     </row>
@@ -889,7 +1349,17 @@
           <t>PRT-A0069934</t>
         </is>
       </c>
-      <c r="B50" t="n">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Blacha wzmacniająca</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -899,7 +1369,17 @@
           <t>PRT-A0069927</t>
         </is>
       </c>
-      <c r="B51" t="n">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Blaszka prowadnika poziomego stała</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -909,7 +1389,17 @@
           <t>PRT-A0069926</t>
         </is>
       </c>
-      <c r="B52" t="n">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Blaszka prowadnika poziomego ruchoma</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -919,7 +1409,17 @@
           <t>PRT-A0069925</t>
         </is>
       </c>
-      <c r="B53" t="n">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Blaszka prowadnika pionowego ruchoma</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -929,7 +1429,17 @@
           <t>PRT-A0069923</t>
         </is>
       </c>
-      <c r="B54" t="n">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Blaszka amortyzatora</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -939,7 +1449,17 @@
           <t>PRT-A0069922</t>
         </is>
       </c>
-      <c r="B55" t="n">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Blacha amortyzatorów</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -949,7 +1469,17 @@
           <t>PRT-A0070322</t>
         </is>
       </c>
-      <c r="B56" t="n">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Gniazdo RH cz2</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,7 +1489,17 @@
           <t>PRT-A0070317</t>
         </is>
       </c>
-      <c r="B57" t="n">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Gniazdo RH cz1</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -969,7 +1509,17 @@
           <t>PRT-A0069982</t>
         </is>
       </c>
-      <c r="B58" t="n">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Gniazdo LH cz2</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -979,7 +1529,17 @@
           <t>PRT-A0069975</t>
         </is>
       </c>
-      <c r="B59" t="n">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Gniazdo LH cz1</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -989,7 +1549,17 @@
           <t>PRT-A0069928</t>
         </is>
       </c>
-      <c r="B60" t="n">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Wspornik siłownika obrotowego</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -999,7 +1569,17 @@
           <t>PRT-A0070378</t>
         </is>
       </c>
-      <c r="B61" t="n">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Płytka adaptera</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1009,7 +1589,17 @@
           <t>PRT-A0070366</t>
         </is>
       </c>
-      <c r="B62" t="n">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Płytka podstawowa podmontażu blaszek</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1019,7 +1609,17 @@
           <t>PRT-A0070313</t>
         </is>
       </c>
-      <c r="B63" t="n">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Podstawka gniazda ECrafter RH</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1029,7 +1629,17 @@
           <t>PRT-A0069974</t>
         </is>
       </c>
-      <c r="B64" t="n">
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Podstawka gniazda ECrafter LH</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1039,7 +1649,17 @@
           <t>PRT-A0069970</t>
         </is>
       </c>
-      <c r="B65" t="n">
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Płyta pod gniazdami</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1049,7 +1669,17 @@
           <t>PRT-A0069929</t>
         </is>
       </c>
-      <c r="B66" t="n">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Dystans docisku</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1059,7 +1689,17 @@
           <t>PRT-A0069921</t>
         </is>
       </c>
-      <c r="B67" t="n">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Podstawa szyny</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1069,7 +1709,17 @@
           <t>PRT-A0069917</t>
         </is>
       </c>
-      <c r="B68" t="n">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Zastrzał osi Z</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1079,7 +1729,17 @@
           <t>PRT-A0069916</t>
         </is>
       </c>
-      <c r="B69" t="n">
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Mocowanie sprzęgła oś Z</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1089,7 +1749,17 @@
           <t>PRT-A0069913</t>
         </is>
       </c>
-      <c r="B70" t="n">
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Płyta szyn osi Z</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1099,7 +1769,17 @@
           <t>PRT-A0069912</t>
         </is>
       </c>
-      <c r="B71" t="n">
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Podstawa szyny</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1109,7 +1789,17 @@
           <t>PRT-A0069910</t>
         </is>
       </c>
-      <c r="B72" t="n">
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Płyta suportu</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1119,7 +1809,17 @@
           <t>PRT-A0069906</t>
         </is>
       </c>
-      <c r="B73" t="n">
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Płyta prasy</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1129,7 +1829,17 @@
           <t>PRT-A0070388</t>
         </is>
       </c>
-      <c r="B74" t="n">
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Wspornik siłownika</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1139,7 +1849,17 @@
           <t>PRT-A0069915</t>
         </is>
       </c>
-      <c r="B75" t="n">
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Adapter stołu obrotowego</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1149,7 +1869,17 @@
           <t>PRT-A0070506</t>
         </is>
       </c>
-      <c r="B76" t="n">
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Osłona dolna podmontażu</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1159,7 +1889,17 @@
           <t>PRT-A0070368</t>
         </is>
       </c>
-      <c r="B77" t="n">
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Klin</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1169,7 +1909,17 @@
           <t>PRT-A0070361</t>
         </is>
       </c>
-      <c r="B78" t="n">
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Podstawa gniazda podmontażu</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1179,7 +1929,17 @@
           <t>PRT-A0070004</t>
         </is>
       </c>
-      <c r="B79" t="n">
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Kostka podpierajaca</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1189,7 +1949,17 @@
           <t>PRT-A0069999</t>
         </is>
       </c>
-      <c r="B80" t="n">
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Kosteczka regulacyjna</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1199,7 +1969,17 @@
           <t>PRT-A0069937</t>
         </is>
       </c>
-      <c r="B81" t="n">
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Mocowanie śruby oporowej obrotu</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1209,7 +1989,17 @@
           <t>PRT-A0069933</t>
         </is>
       </c>
-      <c r="B82" t="n">
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Kostka amortyzatora Z</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1219,7 +2009,17 @@
           <t>PRT-A0069930</t>
         </is>
       </c>
-      <c r="B83" t="n">
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Przedłużka podciśnienia 1</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1229,7 +2029,17 @@
           <t>PRT-A0069924</t>
         </is>
       </c>
-      <c r="B84" t="n">
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Kosteczka oporowa</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1239,7 +2049,17 @@
           <t>PRT-A0069908</t>
         </is>
       </c>
-      <c r="B85" t="n">
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Wałek stempla</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1249,7 +2069,17 @@
           <t>PRT-A0069935</t>
         </is>
       </c>
-      <c r="B86" t="n">
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Kostka zderzaka osi Z</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1259,7 +2089,17 @@
           <t>PRT-A0069919</t>
         </is>
       </c>
-      <c r="B87" t="n">
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Kostka zderzaka</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1269,7 +2109,17 @@
           <t>PRT-A0070349</t>
         </is>
       </c>
-      <c r="B88" t="n">
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Gniazdko blaszek</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1279,7 +2129,17 @@
           <t>PRT-A0070417</t>
         </is>
       </c>
-      <c r="B89" t="n">
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Osłona siłownika</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1289,7 +2149,17 @@
           <t>PRT-A0070375</t>
         </is>
       </c>
-      <c r="B90" t="n">
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Gniazdko switchów</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1299,7 +2169,17 @@
           <t>PRT-A0069989</t>
         </is>
       </c>
-      <c r="B91" t="n">
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Podpórka</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1309,7 +2189,17 @@
           <t>PRT-A0069907</t>
         </is>
       </c>
-      <c r="B92" t="n">
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Stempel prasy</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1319,7 +2209,17 @@
           <t>PRT-A0070409</t>
         </is>
       </c>
-      <c r="B93" t="n">
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Osłonka</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1329,7 +2229,17 @@
           <t>PRT-A0070407</t>
         </is>
       </c>
-      <c r="B94" t="n">
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Osłonka boczna</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1339,7 +2249,17 @@
           <t>PRT-A0070407-Lustro</t>
         </is>
       </c>
-      <c r="B95" t="n">
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Osłonka boczna</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1349,7 +2269,17 @@
           <t>PRT-A0070022</t>
         </is>
       </c>
-      <c r="B96" t="n">
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Uchwyt gniazda</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1359,7 +2289,17 @@
           <t>PRT-A0069918</t>
         </is>
       </c>
-      <c r="B97" t="n">
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Płytka siłownika osi Y</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1369,7 +2309,17 @@
           <t>PRT-A0069911</t>
         </is>
       </c>
-      <c r="B98" t="n">
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Płyta pod narzędziem</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1379,7 +2329,17 @@
           <t>PRT-A0069909</t>
         </is>
       </c>
-      <c r="B99" t="n">
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Żebro</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1389,7 +2349,17 @@
           <t>PRT-A0069932</t>
         </is>
       </c>
-      <c r="B100" t="n">
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Tulejka dystansowa</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1399,7 +2369,17 @@
           <t>PRT-A0069914</t>
         </is>
       </c>
-      <c r="B101" t="n">
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Jarzmo</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1409,7 +2389,17 @@
           <t>PRT-A0069936</t>
         </is>
       </c>
-      <c r="B102" t="n">
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Płytka oporowa obrotu</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1419,7 +2409,17 @@
           <t>PRT-A0069265</t>
         </is>
       </c>
-      <c r="B103" t="n">
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Uchwyt czujnika 2</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1429,7 +2429,17 @@
           <t>PRT-A0068767</t>
         </is>
       </c>
-      <c r="B104" t="n">
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Uchwyt czujnika 1</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1439,7 +2449,17 @@
           <t>PRT-A0069148</t>
         </is>
       </c>
-      <c r="B105" t="n">
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Łącznik dźwigni</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1449,7 +2469,17 @@
           <t>PRT-A0068864</t>
         </is>
       </c>
-      <c r="B106" t="n">
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Mocowanie wózków</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1459,7 +2489,17 @@
           <t>PRT-A0068871</t>
         </is>
       </c>
-      <c r="B107" t="n">
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Oprawa dźwigni prawa</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1469,7 +2509,17 @@
           <t>PRT-A0069230</t>
         </is>
       </c>
-      <c r="B108" t="n">
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Gniazdo 10</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1479,7 +2529,17 @@
           <t>PRT-A0069217</t>
         </is>
       </c>
-      <c r="B109" t="n">
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Gniazdo 9</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1489,7 +2549,17 @@
           <t>PRT-A0068814</t>
         </is>
       </c>
-      <c r="B110" t="n">
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Płyta dolna</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1499,7 +2569,17 @@
           <t>PRT-A0068811</t>
         </is>
       </c>
-      <c r="B111" t="n">
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Płyta pionowa przód</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1509,7 +2589,17 @@
           <t>PRT-A0068810</t>
         </is>
       </c>
-      <c r="B112" t="n">
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Płyta pionowa tył</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1519,7 +2609,17 @@
           <t>PRT-A0068809</t>
         </is>
       </c>
-      <c r="B113" t="n">
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Płyta górna</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1529,7 +2629,17 @@
           <t>PRT-A0068808</t>
         </is>
       </c>
-      <c r="B114" t="n">
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Mocowanie szyny</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1539,7 +2649,17 @@
           <t>PRT-A0071721</t>
         </is>
       </c>
-      <c r="B115" t="n">
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Gniazdo sprężyny prawej</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1549,7 +2669,17 @@
           <t>PRT-A0069147</t>
         </is>
       </c>
-      <c r="B116" t="n">
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Dźwignia prawa</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1559,7 +2689,17 @@
           <t>PRT-A0068775</t>
         </is>
       </c>
-      <c r="B117" t="n">
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Gniazdo sprężyny lewej</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1569,7 +2709,17 @@
           <t>PRT-A0068774</t>
         </is>
       </c>
-      <c r="B118" t="n">
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Dźwignia lewa</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1579,7 +2729,17 @@
           <t>PRT-A0068803</t>
         </is>
       </c>
-      <c r="B119" t="n">
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Płyta górna</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1589,7 +2749,17 @@
           <t>PRT-A0069184</t>
         </is>
       </c>
-      <c r="B120" t="n">
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Listwa sprężyny prawa 2</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1599,7 +2769,17 @@
           <t>PRT-A0069182</t>
         </is>
       </c>
-      <c r="B121" t="n">
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Listwa sprężyny prawa 1</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1609,7 +2789,17 @@
           <t>PRT-A0068805</t>
         </is>
       </c>
-      <c r="B122" t="n">
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Listwa lewa 1</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1619,7 +2809,17 @@
           <t>PRT-A0068813</t>
         </is>
       </c>
-      <c r="B123" t="n">
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Zderzak</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1629,7 +2829,17 @@
           <t>PRT-A0068804</t>
         </is>
       </c>
-      <c r="B124" t="n">
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Sprzęgło</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1639,7 +2849,17 @@
           <t>PRT-A0068773</t>
         </is>
       </c>
-      <c r="B125" t="n">
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Kołek</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1649,7 +2869,17 @@
           <t>PRT-A0068772</t>
         </is>
       </c>
-      <c r="B126" t="n">
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Oprawa dźwigni</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1659,7 +2889,17 @@
           <t>PRT-A0068771</t>
         </is>
       </c>
-      <c r="B127" t="n">
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Zaczep</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1669,7 +2909,17 @@
           <t>PRT-A0068770</t>
         </is>
       </c>
-      <c r="B128" t="n">
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Kostka łożyska</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1679,7 +2929,17 @@
           <t>PRT-A0068769</t>
         </is>
       </c>
-      <c r="B129" t="n">
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Kostka czujnika</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1689,7 +2949,17 @@
           <t>PRT-A0068768</t>
         </is>
       </c>
-      <c r="B130" t="n">
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Zderzak siłownika</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1699,7 +2969,17 @@
           <t>PRT-A0069205</t>
         </is>
       </c>
-      <c r="B131" t="n">
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Gniazdo 8</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1709,7 +2989,17 @@
           <t>PRT-A0069198</t>
         </is>
       </c>
-      <c r="B132" t="n">
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Gniazdo 7</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1719,7 +3009,17 @@
           <t>PRT-A0069181</t>
         </is>
       </c>
-      <c r="B133" t="n">
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Podpora srężyny prawa</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1729,7 +3029,17 @@
           <t>PRT-A0068812</t>
         </is>
       </c>
-      <c r="B134" t="n">
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Podpora sprężyny lewej</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1739,7 +3049,17 @@
           <t>PRT-A0068802</t>
         </is>
       </c>
-      <c r="B135" t="n">
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Podpora środkowa 1</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1749,7 +3069,17 @@
           <t>PRT-A0068801</t>
         </is>
       </c>
-      <c r="B136" t="n">
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Podpora środkowa 2</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1759,7 +3089,17 @@
           <t>PRT-A0068799</t>
         </is>
       </c>
-      <c r="B137" t="n">
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Gniazdo 1</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1769,7 +3109,17 @@
           <t>PRT-A0068798</t>
         </is>
       </c>
-      <c r="B138" t="n">
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Gniazdo 2</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1779,7 +3129,17 @@
           <t>PRT-A0068797</t>
         </is>
       </c>
-      <c r="B139" t="n">
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Gniazdo 3</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1789,7 +3149,17 @@
           <t>PRT-A0068794</t>
         </is>
       </c>
-      <c r="B140" t="n">
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Gniazdo 4</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1799,7 +3169,17 @@
           <t>PRT-A0068791</t>
         </is>
       </c>
-      <c r="B141" t="n">
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Podpora środkowa 3</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1809,7 +3189,17 @@
           <t>PRT-A0068790</t>
         </is>
       </c>
-      <c r="B142" t="n">
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Gniazdo 5</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1819,7 +3209,17 @@
           <t>PRT-A0068789</t>
         </is>
       </c>
-      <c r="B143" t="n">
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Gniazdo 6</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1829,7 +3229,17 @@
           <t>PRT-A0071752</t>
         </is>
       </c>
-      <c r="B144" t="n">
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Kostka mocująca</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1839,7 +3249,17 @@
           <t>PRT-A0071269</t>
         </is>
       </c>
-      <c r="B145" t="n">
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Kostka siłownika</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1849,7 +3269,17 @@
           <t>PRT-A0070650</t>
         </is>
       </c>
-      <c r="B146" t="n">
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Płyta montażowa</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1859,7 +3289,17 @@
           <t>PRT-A0072093</t>
         </is>
       </c>
-      <c r="B147" t="n">
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Uchwyt czujnika</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1869,7 +3309,17 @@
           <t>PRT-A0072092</t>
         </is>
       </c>
-      <c r="B148" t="n">
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Uchwyt czujnika</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1879,7 +3329,17 @@
           <t>PRT-A0072089</t>
         </is>
       </c>
-      <c r="B149" t="n">
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Kostka czujnika</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1889,7 +3349,17 @@
           <t>PRT-A0072085</t>
         </is>
       </c>
-      <c r="B150" t="n">
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Ramie reakcyjne siłownika</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1899,7 +3369,17 @@
           <t>PRT-A0071260</t>
         </is>
       </c>
-      <c r="B151" t="n">
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Mocowanie chwytaka</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1909,7 +3389,17 @@
           <t>PRT-A0071141</t>
         </is>
       </c>
-      <c r="B152" t="n">
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Profil aluminiowy</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1919,7 +3409,17 @@
           <t>PRT-A0070671</t>
         </is>
       </c>
-      <c r="B153" t="n">
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Mocowanie chwytaka</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1929,7 +3429,17 @@
           <t>PRT-A0070665</t>
         </is>
       </c>
-      <c r="B154" t="n">
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Płyta montazowa</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1939,7 +3449,17 @@
           <t>PRT-A0070662</t>
         </is>
       </c>
-      <c r="B155" t="n">
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Płyta montazowa</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1949,7 +3469,17 @@
           <t>PRT-A0070658</t>
         </is>
       </c>
-      <c r="B156" t="n">
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Płyta montażowa</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1959,7 +3489,17 @@
           <t>PRT-A0070655</t>
         </is>
       </c>
-      <c r="B157" t="n">
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Płyta montażowa</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1969,7 +3509,17 @@
           <t>PRT-A0070624</t>
         </is>
       </c>
-      <c r="B158" t="n">
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Płyta mocująca</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1979,7 +3529,17 @@
           <t>PRT-A0070607</t>
         </is>
       </c>
-      <c r="B159" t="n">
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Płyta monrażowa</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1989,7 +3549,17 @@
           <t>PRT-A0070606</t>
         </is>
       </c>
-      <c r="B160" t="n">
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Płyta montażowa</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1999,7 +3569,17 @@
           <t>PRT-A0071416</t>
         </is>
       </c>
-      <c r="B161" t="n">
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Kostka amortyzatora</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2009,7 +3589,17 @@
           <t>PRT-A0071187</t>
         </is>
       </c>
-      <c r="B162" t="n">
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Kostka pozycjonująca</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2019,7 +3609,17 @@
           <t>PRT-A0071168</t>
         </is>
       </c>
-      <c r="B163" t="n">
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Prowadnica</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2029,7 +3629,17 @@
           <t>PRT-A0071749</t>
         </is>
       </c>
-      <c r="B164" t="n">
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Kostka bazująca</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2039,7 +3649,17 @@
           <t>PRT-A0070615</t>
         </is>
       </c>
-      <c r="B165" t="n">
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Support uchwytu</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2049,7 +3669,17 @@
           <t>PRT-A0070614</t>
         </is>
       </c>
-      <c r="B166" t="n">
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Support uchwytu</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2059,7 +3689,17 @@
           <t>PRT-A0070434</t>
         </is>
       </c>
-      <c r="B167" t="n">
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Głowica pobierająca detal</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2069,7 +3709,17 @@
           <t>PRT-A0071764</t>
         </is>
       </c>
-      <c r="B168" t="n">
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Gniazdo wtyczki V2</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2079,7 +3729,17 @@
           <t>PRT-A0071418</t>
         </is>
       </c>
-      <c r="B169" t="n">
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Płytka nierdzewna</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2089,7 +3749,17 @@
           <t>PRT-A0070628</t>
         </is>
       </c>
-      <c r="B170" t="n">
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Wałek docisku</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2099,7 +3769,17 @@
           <t>PRT-A0070616</t>
         </is>
       </c>
-      <c r="B171" t="n">
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Support uchwytu</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2109,7 +3789,17 @@
           <t>PRT-A0070613</t>
         </is>
       </c>
-      <c r="B172" t="n">
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Support uchwytu</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2119,7 +3809,17 @@
           <t>PRT-A0070612</t>
         </is>
       </c>
-      <c r="B173" t="n">
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Support uchwytu</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2129,7 +3829,17 @@
           <t>PRT-A0070610</t>
         </is>
       </c>
-      <c r="B174" t="n">
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Support uchwytu</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2139,7 +3849,17 @@
           <t>PRT-A0070118</t>
         </is>
       </c>
-      <c r="B175" t="n">
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Zabezpieczenie szyny</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2149,7 +3869,17 @@
           <t>PRT-A0070119</t>
         </is>
       </c>
-      <c r="B176" t="n">
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Wspornik płyty prowadnic</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2159,7 +3889,17 @@
           <t>PRT-A0070117</t>
         </is>
       </c>
-      <c r="B177" t="n">
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Płyta zespołu dojazdu</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2169,7 +3909,17 @@
           <t>PRT-A0070112</t>
         </is>
       </c>
-      <c r="B178" t="n">
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Adapter łącznika</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2179,7 +3929,17 @@
           <t>PRT-A0070113</t>
         </is>
       </c>
-      <c r="B179" t="n">
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Płyta napędu liniowego</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2189,7 +3949,17 @@
           <t>PRT-A0070116</t>
         </is>
       </c>
-      <c r="B180" t="n">
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Płyta suportu 1</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2199,7 +3969,17 @@
           <t>PRT-A0070115</t>
         </is>
       </c>
-      <c r="B181" t="n">
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Płyta pionowa supportu</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2209,7 +3989,17 @@
           <t>PRT-A0070114</t>
         </is>
       </c>
-      <c r="B182" t="n">
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Wzmocnienie supportu</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2219,7 +4009,17 @@
           <t>PRT-A0070132</t>
         </is>
       </c>
-      <c r="B183" t="n">
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wkręt dociskowy </t>
+        </is>
+      </c>
+      <c r="D183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2229,7 +4029,17 @@
           <t>PRT-A0070109</t>
         </is>
       </c>
-      <c r="B184" t="n">
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Wspornik ruchomy prowadnika</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2239,7 +4049,17 @@
           <t>PRT-A0070487</t>
         </is>
       </c>
-      <c r="B185" t="n">
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Podpora środkowa</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2249,7 +4069,17 @@
           <t>PRT-A0070487-Lustro</t>
         </is>
       </c>
-      <c r="B186" t="n">
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Podpora środkowa</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2259,7 +4089,17 @@
           <t>PRT-A0070088</t>
         </is>
       </c>
-      <c r="B187" t="n">
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Tuleja docisku</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2269,7 +4109,17 @@
           <t>PRT-A0070498</t>
         </is>
       </c>
-      <c r="B188" t="n">
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Mocowanie podpory przedniej</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2279,7 +4129,17 @@
           <t>PRT-A0070489</t>
         </is>
       </c>
-      <c r="B189" t="n">
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Mocowanie podpory środkowej</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2289,7 +4149,17 @@
           <t>PRT-A0070491</t>
         </is>
       </c>
-      <c r="B190" t="n">
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Wspornik siłownika 2</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2299,7 +4169,17 @@
           <t>PRT-A0070491-Lustro</t>
         </is>
       </c>
-      <c r="B191" t="n">
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Wspornik siłownika 2</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2309,7 +4189,17 @@
           <t>PRT-A0070490</t>
         </is>
       </c>
-      <c r="B192" t="n">
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Wspornik siłownika 1</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2319,7 +4209,17 @@
           <t>PRT-A0070107</t>
         </is>
       </c>
-      <c r="B193" t="n">
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Płyta główna</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2329,7 +4229,17 @@
           <t>PRT-A0070107-Lustro</t>
         </is>
       </c>
-      <c r="B194" t="n">
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Płyta główna</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2339,7 +4249,17 @@
           <t>PRT-A0070090</t>
         </is>
       </c>
-      <c r="B195" t="n">
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Wspornik siłownika</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2349,7 +4269,17 @@
           <t>PRT-A0070492</t>
         </is>
       </c>
-      <c r="B196" t="n">
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Kostka elektryczna</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2359,7 +4289,17 @@
           <t>PRT-A0070089</t>
         </is>
       </c>
-      <c r="B197" t="n">
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Ramie dociskowe</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2369,7 +4309,17 @@
           <t>PRT-A0070499</t>
         </is>
       </c>
-      <c r="B198" t="n">
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Podpora przednia 2</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2379,7 +4329,17 @@
           <t>PRT-A0070499-Lustro</t>
         </is>
       </c>
-      <c r="B199" t="n">
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Podpora przednia 2</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2389,7 +4349,17 @@
           <t>PRT-A0070494</t>
         </is>
       </c>
-      <c r="B200" t="n">
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Podpora przednia 1</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2399,7 +4369,17 @@
           <t>PRT-A0070494-Lustro</t>
         </is>
       </c>
-      <c r="B201" t="n">
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Podpora przednia 1</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2409,7 +4389,17 @@
           <t>PRT-A0070546</t>
         </is>
       </c>
-      <c r="B202" t="n">
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Tuleja bazująca</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2419,7 +4409,17 @@
           <t>PRT-A0070105</t>
         </is>
       </c>
-      <c r="B203" t="n">
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Tuleja bazująca</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2429,7 +4429,17 @@
           <t>PRT-A0070105-Lustro</t>
         </is>
       </c>
-      <c r="B204" t="n">
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Tuleja bazująca</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2439,7 +4449,17 @@
           <t>PRT-A0070542</t>
         </is>
       </c>
-      <c r="B205" t="n">
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Wspornik siłownika 1</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2449,7 +4469,17 @@
           <t>PRT-A0071409</t>
         </is>
       </c>
-      <c r="B206" t="n">
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Płytka blokady</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2459,7 +4489,17 @@
           <t>PRT-A0071409-Lustro</t>
         </is>
       </c>
-      <c r="B207" t="n">
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Płytka blokady</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2469,7 +4509,17 @@
           <t>PRT-A0071429</t>
         </is>
       </c>
-      <c r="B208" t="n">
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Oś</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2479,7 +4529,17 @@
           <t>PRT-A0071415</t>
         </is>
       </c>
-      <c r="B209" t="n">
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Oś</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2489,7 +4549,17 @@
           <t>PRT-A0071413</t>
         </is>
       </c>
-      <c r="B210" t="n">
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Oś</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2499,7 +4569,17 @@
           <t>PRT-A0071433</t>
         </is>
       </c>
-      <c r="B211" t="n">
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Płytka łącząca</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2509,7 +4589,17 @@
           <t>PRT-A0071423</t>
         </is>
       </c>
-      <c r="B212" t="n">
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Płytka pośrednia</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2519,7 +4609,17 @@
           <t>PRT-A0073063</t>
         </is>
       </c>
-      <c r="B213" t="n">
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Wałeczek gumowy</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2529,7 +4629,17 @@
           <t>PRT-A0071414</t>
         </is>
       </c>
-      <c r="B214" t="n">
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Ramię docisku</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2539,7 +4649,17 @@
           <t>PRT-A0071419</t>
         </is>
       </c>
-      <c r="B215" t="n">
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Dociskacz</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2549,7 +4669,17 @@
           <t>PRT-A0071410</t>
         </is>
       </c>
-      <c r="B216" t="n">
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Płytka siłownika</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2559,7 +4689,17 @@
           <t>PRT-A0071412</t>
         </is>
       </c>
-      <c r="B217" t="n">
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Ramię małe</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2569,7 +4709,17 @@
           <t>PRT-A0071411</t>
         </is>
       </c>
-      <c r="B218" t="n">
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Ramię</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2579,7 +4729,17 @@
           <t>PRT-A0073136</t>
         </is>
       </c>
-      <c r="B219" t="n">
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Mocowanie BSC00PJ</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2589,7 +4749,17 @@
           <t>PRT-A0070430</t>
         </is>
       </c>
-      <c r="B220" t="n">
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Płyta główna eCrafter Tył</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2599,7 +4769,17 @@
           <t>PRT-A0070100</t>
         </is>
       </c>
-      <c r="B221" t="n">
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Wspornik pinów 1</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2609,7 +4789,17 @@
           <t>PRT-A0070099</t>
         </is>
       </c>
-      <c r="B222" t="n">
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Wspornik pinów 2</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2619,7 +4809,17 @@
           <t>PRT-A0070098</t>
         </is>
       </c>
-      <c r="B223" t="n">
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Kostka elektryczna</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2629,7 +4829,17 @@
           <t>PRT-A0071455</t>
         </is>
       </c>
-      <c r="B224" t="n">
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Blokada L</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2639,7 +4849,17 @@
           <t>PRT-A0071450</t>
         </is>
       </c>
-      <c r="B225" t="n">
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Blokada P</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2649,7 +4869,17 @@
           <t>PRT-A0071266</t>
         </is>
       </c>
-      <c r="B226" t="n">
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Podpora PT</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2659,7 +4889,17 @@
           <t>PRT-A0071261</t>
         </is>
       </c>
-      <c r="B227" t="n">
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Podpora TL</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2669,7 +4909,17 @@
           <t>PRT-A0071267</t>
         </is>
       </c>
-      <c r="B228" t="n">
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Podpora PP</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2679,7 +4929,17 @@
           <t>PRT-A0071265</t>
         </is>
       </c>
-      <c r="B229" t="n">
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Dokładka PP</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2689,7 +4949,17 @@
           <t>PRT-A0071263</t>
         </is>
       </c>
-      <c r="B230" t="n">
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Dokładka PL</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2699,7 +4969,17 @@
           <t>PRT-A0071262</t>
         </is>
       </c>
-      <c r="B231" t="n">
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Podpora PL</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2709,7 +4989,17 @@
           <t>PRT-A0070108</t>
         </is>
       </c>
-      <c r="B232" t="n">
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Rynna prowadnika</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2719,7 +5009,17 @@
           <t>PRT-A0070418</t>
         </is>
       </c>
-      <c r="B233" t="n">
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Ściana prawa</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2729,7 +5029,17 @@
           <t>PRT-A0070548</t>
         </is>
       </c>
-      <c r="B234" t="n">
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Ściana lewa</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2739,7 +5049,17 @@
           <t>PRT-A0070110</t>
         </is>
       </c>
-      <c r="B235" t="n">
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Wałek dystansowy</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2749,7 +5069,17 @@
           <t>PRT-A0070121</t>
         </is>
       </c>
-      <c r="B236" t="n">
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Wpust</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2759,7 +5089,17 @@
           <t>PRT-A0070125</t>
         </is>
       </c>
-      <c r="B237" t="n">
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Pokrywa łożyska</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2769,7 +5109,17 @@
           <t>PRT-A0070123</t>
         </is>
       </c>
-      <c r="B238" t="n">
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Pokrywka</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2779,7 +5129,17 @@
           <t>PRT-A0070129</t>
         </is>
       </c>
-      <c r="B239" t="n">
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Korpus</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2789,7 +5149,17 @@
           <t>PRT-A0070127</t>
         </is>
       </c>
-      <c r="B240" t="n">
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Pierścień dystansowy</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2799,7 +5169,17 @@
           <t>PRT-A0073184</t>
         </is>
       </c>
-      <c r="B241" t="n">
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Uchwyt siłownika</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2809,7 +5189,17 @@
           <t>PRT-A0073197</t>
         </is>
       </c>
-      <c r="B242" t="n">
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Mocowanie siłownika</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2819,7 +5209,17 @@
           <t>PRT-A0073195</t>
         </is>
       </c>
-      <c r="B243" t="n">
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Mocowanie siłownika</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2829,7 +5229,17 @@
           <t>PRT-A0073178</t>
         </is>
       </c>
-      <c r="B244" t="n">
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Mocowanie siłownika</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2839,7 +5249,17 @@
           <t>PRT-A0070120</t>
         </is>
       </c>
-      <c r="B245" t="n">
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Odważnik przód</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2849,7 +5269,17 @@
           <t>PRT-A0070126</t>
         </is>
       </c>
-      <c r="B246" t="n">
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Ramię przód</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2859,7 +5289,17 @@
           <t>PRT-A0070122</t>
         </is>
       </c>
-      <c r="B247" t="n">
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Palec przód</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2869,7 +5309,17 @@
           <t>PRT-A0070576</t>
         </is>
       </c>
-      <c r="B248" t="n">
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Odważnik tył</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2879,7 +5329,17 @@
           <t>PRT-A0070575</t>
         </is>
       </c>
-      <c r="B249" t="n">
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Ramię tył</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2889,7 +5349,17 @@
           <t>PRT-A0070633</t>
         </is>
       </c>
-      <c r="B250" t="n">
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Palec tył zapas</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2899,7 +5369,17 @@
           <t>PRT-A0070128</t>
         </is>
       </c>
-      <c r="B251" t="n">
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Wałek główny</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2909,7 +5389,17 @@
           <t>PRT-A0070124</t>
         </is>
       </c>
-      <c r="B252" t="n">
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Mocowanie czujników</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2919,7 +5409,17 @@
           <t>PRT-A0073447</t>
         </is>
       </c>
-      <c r="B253" t="n">
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Gniazdo Dźwigni eCrafter Przesuwny LH</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2929,7 +5429,17 @@
           <t>PRT-A0073447-Lustro</t>
         </is>
       </c>
-      <c r="B254" t="n">
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Gniazdo Dźwigni eCrafter Przesuwny RH</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2939,7 +5449,17 @@
           <t>PRT-A0073446</t>
         </is>
       </c>
-      <c r="B255" t="n">
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Gniazdo Dźwigni eCrafter Przesuwny LH</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2949,7 +5469,17 @@
           <t>PRT-A0073446-Lustro</t>
         </is>
       </c>
-      <c r="B256" t="n">
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Gniazdo Dźwigni eCrafter Przesuwny RH</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2959,7 +5489,17 @@
           <t>PRT-A0073445</t>
         </is>
       </c>
-      <c r="B257" t="n">
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Gniazdo Dźwigni eCrafter Przesuwny LH</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2969,7 +5509,17 @@
           <t>PRT-A0073445-Lustro</t>
         </is>
       </c>
-      <c r="B258" t="n">
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Gniazdo Dźwigni eCrafter Przesuwny RH</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2979,7 +5529,17 @@
           <t>PRT-A0073441</t>
         </is>
       </c>
-      <c r="B259" t="n">
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Gniazdo Dźwigni eCrafter Przesuwny LH</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2989,7 +5549,17 @@
           <t>PRT-A0073441-Lustro</t>
         </is>
       </c>
-      <c r="B260" t="n">
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Gniazdo Dźwigni eCrafter Przesuwny RH</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2999,7 +5569,17 @@
           <t>PRT-A0073440</t>
         </is>
       </c>
-      <c r="B261" t="n">
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Gniazdo Dźwigni eCrafter Przesuwny LH</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3009,7 +5589,17 @@
           <t>PRT-A0073440-Lustro</t>
         </is>
       </c>
-      <c r="B262" t="n">
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Gniazdo Dźwigni eCrafter Przesuwny RH</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3019,7 +5609,17 @@
           <t>PRT-A0072854-Lustro</t>
         </is>
       </c>
-      <c r="B263" t="n">
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Gniazdo Dźwigni eCrafter Przesuwny RH</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3029,7 +5629,17 @@
           <t>PRT-A0073444</t>
         </is>
       </c>
-      <c r="B264" t="n">
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Gniazdo Dźwigni eCrafter Przesuwny LH</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3039,7 +5649,17 @@
           <t>PRT-A0073444-Lustro</t>
         </is>
       </c>
-      <c r="B265" t="n">
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Gniazdo Dźwigni eCrafter Przesuwny RH</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,7 +5669,17 @@
           <t>PRT-A0073443</t>
         </is>
       </c>
-      <c r="B266" t="n">
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Gniazdo Dźwigni eCrafter Przesuwny LH</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3059,7 +5689,17 @@
           <t>PRT-A0073443-Lustro</t>
         </is>
       </c>
-      <c r="B267" t="n">
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Gniazdo Dźwigni eCrafter Przesuwny RH</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3069,7 +5709,17 @@
           <t>PRT-A0073442</t>
         </is>
       </c>
-      <c r="B268" t="n">
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Gniazdo Dźwigni eCrafter Przesuwny LH</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3079,7 +5729,17 @@
           <t>PRT-A0073442-Lustro</t>
         </is>
       </c>
-      <c r="B269" t="n">
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Gniazdo Dźwigni eCrafter Przesuwny RH</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3089,7 +5749,17 @@
           <t>000.MAG.50 - M8 x L-F</t>
         </is>
       </c>
-      <c r="B270" t="n">
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Śruba separująca</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3099,7 +5769,17 @@
           <t>000.MAG.50 - M5 x L-C</t>
         </is>
       </c>
-      <c r="B271" t="n">
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Śruba separujaca</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3109,7 +5789,17 @@
           <t>000.MAG.50 - M6 x40</t>
         </is>
       </c>
-      <c r="B272" t="n">
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Śruba separująca</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3119,7 +5809,17 @@
           <t>000.MAG.90.07</t>
         </is>
       </c>
-      <c r="B273" t="n">
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Tuleja centrująca</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
         <v>-2</v>
       </c>
     </row>
@@ -3129,7 +5829,17 @@
           <t>000.MAG.50 - M5</t>
         </is>
       </c>
-      <c r="B274" t="n">
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Nóżka</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3139,7 +5849,17 @@
           <t>PRT-A0073372</t>
         </is>
       </c>
-      <c r="B275" t="n">
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Obudowa Fluke 3-3</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3149,7 +5869,17 @@
           <t>PRT-A0073371</t>
         </is>
       </c>
-      <c r="B276" t="n">
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Obudowa Fluke 1-3</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3159,7 +5889,17 @@
           <t>PRT-A0073373</t>
         </is>
       </c>
-      <c r="B277" t="n">
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Obudowa Fluke 2-3</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3169,7 +5909,17 @@
           <t>ASM-A0011301</t>
         </is>
       </c>
-      <c r="B278" t="n">
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Skrzynka spawana Fluke</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3179,7 +5929,17 @@
           <t>PRT-A0073479</t>
         </is>
       </c>
-      <c r="B279" t="n">
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Kątownik mocujący</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3189,7 +5949,17 @@
           <t>PRT-A0073380</t>
         </is>
       </c>
-      <c r="B280" t="n">
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Osłona tylna</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3199,7 +5969,17 @@
           <t>PRT-A0073374</t>
         </is>
       </c>
-      <c r="B281" t="n">
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Drzwiczki skrzynki</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3209,7 +5989,17 @@
           <t>PRT-A0073375</t>
         </is>
       </c>
-      <c r="B282" t="n">
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Stopka</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3219,7 +6009,17 @@
           <t>PRT-A0073469</t>
         </is>
       </c>
-      <c r="B283" t="n">
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Osłona lewa</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3229,7 +6029,17 @@
           <t>PRT-A0073466</t>
         </is>
       </c>
-      <c r="B284" t="n">
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Osłona prawa</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3239,7 +6049,17 @@
           <t>PRT-A0073465</t>
         </is>
       </c>
-      <c r="B285" t="n">
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Osłona</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3249,7 +6069,17 @@
           <t>PRT-A0073377</t>
         </is>
       </c>
-      <c r="B286" t="n">
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Okno</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3259,7 +6089,17 @@
           <t>PRT-A0073401</t>
         </is>
       </c>
-      <c r="B287" t="n">
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Mocowanie magnesu</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3269,7 +6109,17 @@
           <t>PRT-A0073401 Lustro</t>
         </is>
       </c>
-      <c r="B288" t="n">
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Mocowanie magnesu</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3279,7 +6129,17 @@
           <t>PRT-A0073379</t>
         </is>
       </c>
-      <c r="B289" t="n">
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Mocowanie ukośne</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3289,7 +6149,17 @@
           <t>PRT-A0073379 Lustro</t>
         </is>
       </c>
-      <c r="B290" t="n">
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Mocowanie ukośne</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3299,7 +6169,17 @@
           <t>PRT-A0073376</t>
         </is>
       </c>
-      <c r="B291" t="n">
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Mocowanie przód</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3309,7 +6189,17 @@
           <t>110M5</t>
         </is>
       </c>
-      <c r="B292" t="n">
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Złączka kątowa M5</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3319,7 +6209,17 @@
           <t>Łożysko liniowe KB 0825UU (08x16x25)</t>
         </is>
       </c>
-      <c r="B293" t="n">
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Łożysko liniowe (08x16x25)</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
         <v>-2</v>
       </c>
     </row>
@@ -3329,7 +6229,17 @@
           <t>Domyślna</t>
         </is>
       </c>
-      <c r="B294" t="n">
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Stopki dociskowa wahliwa</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
         <v>-6</v>
       </c>
     </row>
@@ -3339,7 +6249,17 @@
           <t>Z 15</t>
         </is>
       </c>
-      <c r="B295" t="n">
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Seger zewnętrzny</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
         <v>-4</v>
       </c>
     </row>
@@ -3349,7 +6269,17 @@
           <t>K0395.506</t>
         </is>
       </c>
-      <c r="B296" t="n">
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Stopki dociskowa wahliwa</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3359,7 +6289,17 @@
           <t>Sprężyna D12210</t>
         </is>
       </c>
-      <c r="B297" t="n">
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Sprężyna naciskowa</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
         <v>-2</v>
       </c>
     </row>
@@ -3369,7 +6309,17 @@
           <t>GRLARQS M56</t>
         </is>
       </c>
-      <c r="B298" t="n">
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Zawór dławiąco-zwrotny</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
         <v>-12</v>
       </c>
     </row>
@@ -3379,7 +6329,17 @@
           <t>TCL20x60SG</t>
         </is>
       </c>
-      <c r="B299" t="n">
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Siłownik</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3389,7 +6349,17 @@
           <t>HGL-1_8-B</t>
         </is>
       </c>
-      <c r="B300" t="n">
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Zawór zwrotny sterowany</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3399,7 +6369,17 @@
           <t>CD55B20-150M</t>
         </is>
       </c>
-      <c r="B301" t="n">
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Siłownik</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3409,7 +6389,17 @@
           <t>GRLARQS 186</t>
         </is>
       </c>
-      <c r="B302" t="n">
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Zawór dławiąco - zwrotny</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
         <v>-2</v>
       </c>
     </row>
@@ -3419,7 +6409,17 @@
           <t>Wózek HGW20CCZOH</t>
         </is>
       </c>
-      <c r="B303" t="n">
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Wózek</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
         <v>-2</v>
       </c>
     </row>
@@ -3429,7 +6429,17 @@
           <t>BMF00A2</t>
         </is>
       </c>
-      <c r="B304" t="n">
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Czujnik Typ. C</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3439,7 +6449,17 @@
           <t>JA20-8-125</t>
         </is>
       </c>
-      <c r="B305" t="n">
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Sprzęgło M8x1,25</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3449,7 +6469,17 @@
           <t>0.305m B15i.025.038.0 + 1025.12PZ.A1</t>
         </is>
       </c>
-      <c r="B306" t="n">
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Prowadnik kablowy</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3459,7 +6489,17 @@
           <t>HGR20R L=340mm 6 otw. sym.</t>
         </is>
       </c>
-      <c r="B307" t="n">
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Szyna</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3469,7 +6509,17 @@
           <t>RQSL M56</t>
         </is>
       </c>
-      <c r="B308" t="n">
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Złącze katowe</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3479,7 +6529,17 @@
           <t>CMSG-020</t>
         </is>
       </c>
-      <c r="B309" t="n">
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Czujnik Typ. T</t>
+        </is>
+      </c>
+      <c r="D309" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3489,7 +6549,17 @@
           <t>HC-1 Cable Mount</t>
         </is>
       </c>
-      <c r="B310" t="n">
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Mocowanie przewodu</t>
+        </is>
+      </c>
+      <c r="D310" t="n">
         <v>-4</v>
       </c>
     </row>
@@ -3499,7 +6569,17 @@
           <t>JB40-8-125</t>
         </is>
       </c>
-      <c r="B311" t="n">
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Końcówka kompensacyjna</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
         <v>-2</v>
       </c>
     </row>
@@ -3509,7 +6589,17 @@
           <t>Z 6</t>
         </is>
       </c>
-      <c r="B312" t="n">
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Seger zewnętrzny</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
         <v>-2</v>
       </c>
     </row>
@@ -3519,7 +6609,17 @@
           <t>CD55B20-100M</t>
         </is>
       </c>
-      <c r="B313" t="n">
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Siłownik</t>
+        </is>
+      </c>
+      <c r="D313" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3529,7 +6629,17 @@
           <t>Tulejka ślizgowa-xxx</t>
         </is>
       </c>
-      <c r="B314" t="n">
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Tulejka ślizgowa</t>
+        </is>
+      </c>
+      <c r="D314" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3539,7 +6649,17 @@
           <t>D10940</t>
         </is>
       </c>
-      <c r="B315" t="n">
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Sprężyna naciskowa</t>
+        </is>
+      </c>
+      <c r="D315" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3549,7 +6669,17 @@
           <t>JA15-5-080</t>
         </is>
       </c>
-      <c r="B316" t="n">
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Sprzęgło</t>
+        </is>
+      </c>
+      <c r="D316" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3559,7 +6689,17 @@
           <t>Y-G02</t>
         </is>
       </c>
-      <c r="B317" t="n">
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Końcówka widełkowa</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3569,7 +6709,17 @@
           <t>MGN9C</t>
         </is>
       </c>
-      <c r="B318" t="n">
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Wózek</t>
+        </is>
+      </c>
+      <c r="D318" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3579,7 +6729,17 @@
           <t>MGN05H1R50Z0HM</t>
         </is>
       </c>
-      <c r="B319" t="n">
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Szyna</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3589,7 +6749,17 @@
           <t>PRT-A0072915</t>
         </is>
       </c>
-      <c r="B320" t="n">
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Sprężyna eCrafter przesuwny LH</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3599,7 +6769,17 @@
           <t>PRT-A0072914</t>
         </is>
       </c>
-      <c r="B321" t="n">
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Sprężyna eCrafter przesuwny RH</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3609,7 +6789,17 @@
           <t>CDQ2WB20-10DMZ</t>
         </is>
       </c>
-      <c r="B322" t="n">
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Siłownik</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3619,7 +6809,17 @@
           <t>MGNR9</t>
         </is>
       </c>
-      <c r="B323" t="n">
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Szyna</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3629,7 +6829,17 @@
           <t>7C0_843_641_A__DMU_TM__002_____ZSB_INNENBETAETIGU_SBT_______JTI_080422_12-21.02.2023</t>
         </is>
       </c>
-      <c r="B324" t="n">
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D324" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3639,7 +6849,17 @@
           <t>M-5HL-4</t>
         </is>
       </c>
-      <c r="B325" t="n">
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Szybkozłącze kątowe M5 - 4mm</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
         <v>-4</v>
       </c>
     </row>
@@ -3649,7 +6869,17 @@
           <t>ACA0806-1</t>
         </is>
       </c>
-      <c r="B326" t="n">
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Amortyzator hydrauliczny</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
         <v>-5</v>
       </c>
     </row>
@@ -3659,7 +6889,17 @@
           <t>HGW15CCZOH</t>
         </is>
       </c>
-      <c r="B327" t="n">
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Wózek</t>
+        </is>
+      </c>
+      <c r="D327" t="n">
         <v>-3</v>
       </c>
     </row>
@@ -3669,7 +6909,17 @@
           <t>0.2m E2.10.20.018.0 + E2.100.20.12PZ.A3</t>
         </is>
       </c>
-      <c r="B328" t="n">
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Prowadnik kablowy</t>
+        </is>
+      </c>
+      <c r="D328" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3679,7 +6929,17 @@
           <t>CQ-LZ12</t>
         </is>
       </c>
-      <c r="B329" t="n">
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Łapy montażowe</t>
+        </is>
+      </c>
+      <c r="D329" t="n">
         <v>-2</v>
       </c>
     </row>
@@ -3689,7 +6949,17 @@
           <t>_CDQ2A12-15(1_0)_BODY___</t>
         </is>
       </c>
-      <c r="B330" t="n">
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D330" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3699,7 +6969,17 @@
           <t>_CDQ2A12-15-(1_0)_CYROD___</t>
         </is>
       </c>
-      <c r="B331" t="n">
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D331" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3709,7 +6989,17 @@
           <t>MGN05H</t>
         </is>
       </c>
-      <c r="B332" t="n">
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Wózek</t>
+        </is>
+      </c>
+      <c r="D332" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3719,7 +7009,17 @@
           <t>HGR15R L=200mm 4 otw. sym.</t>
         </is>
       </c>
-      <c r="B333" t="n">
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Szyna</t>
+        </is>
+      </c>
+      <c r="D333" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3729,7 +7029,17 @@
           <t>HGH15CAZOH</t>
         </is>
       </c>
-      <c r="B334" t="n">
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Wózek</t>
+        </is>
+      </c>
+      <c r="D334" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3739,7 +7049,17 @@
           <t>A 8x7x100</t>
         </is>
       </c>
-      <c r="B335" t="n">
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Wpust pryzmatyczny</t>
+        </is>
+      </c>
+      <c r="D335" t="n">
         <v>-5</v>
       </c>
     </row>
@@ -3749,7 +7069,17 @@
           <t>HGR15R L=140mm 3 otw. sym.</t>
         </is>
       </c>
-      <c r="B336" t="n">
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Szyna</t>
+        </is>
+      </c>
+      <c r="D336" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3759,7 +7089,17 @@
           <t>sześciokątna M8</t>
         </is>
       </c>
-      <c r="B337" t="n">
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Nakrętka zwykła</t>
+        </is>
+      </c>
+      <c r="D337" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3769,7 +7109,17 @@
           <t>Napęd obrotowy 1369117 DSM-16-270-P1-HD-A-B</t>
         </is>
       </c>
-      <c r="B338" t="n">
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Moduł wahadłowy</t>
+        </is>
+      </c>
+      <c r="D338" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3779,7 +7129,17 @@
           <t>0.18m E2.10.16.028.0 + E2.100.16.12PZ.A2</t>
         </is>
       </c>
-      <c r="B339" t="n">
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>0.18m E2.10.16.028.0 + E2.100.16.12PZ.A2</t>
+        </is>
+      </c>
+      <c r="D339" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3789,7 +7149,17 @@
           <t>Czujnik-173210 SME-10-KL-LED-24</t>
         </is>
       </c>
-      <c r="B340" t="n">
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Czujnik</t>
+        </is>
+      </c>
+      <c r="D340" t="n">
         <v>-2</v>
       </c>
     </row>
@@ -3799,7 +7169,17 @@
           <t>CD55B20-50M</t>
         </is>
       </c>
-      <c r="B341" t="n">
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Siłownik</t>
+        </is>
+      </c>
+      <c r="D341" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3809,7 +7189,17 @@
           <t>000.MAG.50 - M8 x 35</t>
         </is>
       </c>
-      <c r="B342" t="n">
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Śruba separująca</t>
+        </is>
+      </c>
+      <c r="D342" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3819,7 +7209,17 @@
           <t>SL-DSM-B</t>
         </is>
       </c>
-      <c r="B343" t="n">
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Uchwyt czujnika</t>
+        </is>
+      </c>
+      <c r="D343" t="n">
         <v>-2</v>
       </c>
     </row>
@@ -3829,7 +7229,17 @@
           <t>Koncentrator BNI IOL-104-00-K006</t>
         </is>
       </c>
-      <c r="B344" t="n">
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Koncentrator</t>
+        </is>
+      </c>
+      <c r="D344" t="n">
         <v>-2</v>
       </c>
     </row>
@@ -3839,7 +7249,17 @@
           <t>HGR15R L=350mm 6 otw. sym.</t>
         </is>
       </c>
-      <c r="B345" t="n">
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Szyna</t>
+        </is>
+      </c>
+      <c r="D345" t="n">
         <v>-2</v>
       </c>
     </row>
@@ -3849,7 +7269,17 @@
           <t>K0348.0706121</t>
         </is>
       </c>
-      <c r="B346" t="n">
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Trzpień ustalający z uchwytem jednoskrzydełkowym</t>
+        </is>
+      </c>
+      <c r="D346" t="n">
         <v>-2</v>
       </c>
     </row>
@@ -3859,7 +7289,17 @@
           <t>093W302N08</t>
         </is>
       </c>
-      <c r="B347" t="n">
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Kątownik 30x60</t>
+        </is>
+      </c>
+      <c r="D347" t="n">
         <v>-2</v>
       </c>
     </row>
@@ -3869,7 +7309,17 @@
           <t>Wózek HGW15CCZOH</t>
         </is>
       </c>
-      <c r="B348" t="n">
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Wózek</t>
+        </is>
+      </c>
+      <c r="D348" t="n">
         <v>-4</v>
       </c>
     </row>
@@ -3879,7 +7329,17 @@
           <t>Czujnik-LR-ZB100C3P</t>
         </is>
       </c>
-      <c r="B349" t="n">
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Czujnik optyczny</t>
+        </is>
+      </c>
+      <c r="D349" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3889,7 +7349,17 @@
           <t>HC-2 Cable Mount</t>
         </is>
       </c>
-      <c r="B350" t="n">
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Mocowanie przewodu</t>
+        </is>
+      </c>
+      <c r="D350" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3899,7 +7369,17 @@
           <t>PRT-A0072877</t>
         </is>
       </c>
-      <c r="B351" t="n">
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D351" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3909,7 +7389,17 @@
           <t>HLH16X60S</t>
         </is>
       </c>
-      <c r="B352" t="n">
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Siłownik pneumatyczny</t>
+        </is>
+      </c>
+      <c r="D352" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3919,7 +7409,17 @@
           <t>A 8x7x80</t>
         </is>
       </c>
-      <c r="B353" t="n">
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Wpust pryzmatyczny</t>
+        </is>
+      </c>
+      <c r="D353" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3929,7 +7429,17 @@
           <t>PRT-A0072858</t>
         </is>
       </c>
-      <c r="B354" t="n">
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Gniazdo Dźwigni eCrafter Przesuwny LH</t>
+        </is>
+      </c>
+      <c r="D354" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3939,7 +7449,17 @@
           <t>K0232.20701</t>
         </is>
       </c>
-      <c r="B355" t="n">
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Uchwyt profilowany B</t>
+        </is>
+      </c>
+      <c r="D355" t="n">
         <v>-4</v>
       </c>
     </row>
@@ -3949,7 +7469,17 @@
           <t>DAS 30 75F05CR</t>
         </is>
       </c>
-      <c r="B356" t="n">
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Zawór dozujący</t>
+        </is>
+      </c>
+      <c r="D356" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3959,7 +7489,17 @@
           <t>BMF0002</t>
         </is>
       </c>
-      <c r="B357" t="n">
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Czujnik Typ. C</t>
+        </is>
+      </c>
+      <c r="D357" t="n">
         <v>-3</v>
       </c>
     </row>
@@ -3969,7 +7509,17 @@
           <t>CD55B20-120M</t>
         </is>
       </c>
-      <c r="B358" t="n">
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Siłownik</t>
+        </is>
+      </c>
+      <c r="D358" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3979,7 +7529,17 @@
           <t>CP96SDB40-70C</t>
         </is>
       </c>
-      <c r="B359" t="n">
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Siłownik</t>
+        </is>
+      </c>
+      <c r="D359" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -3989,7 +7549,17 @@
           <t>Z łbem 6-kąt M8x40</t>
         </is>
       </c>
-      <c r="B360" t="n">
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Śruba</t>
+        </is>
+      </c>
+      <c r="D360" t="n">
         <v>-4</v>
       </c>
     </row>
@@ -3999,7 +7569,17 @@
           <t>AB 10x8x32</t>
         </is>
       </c>
-      <c r="B361" t="n">
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Wpust pryzmatyczny</t>
+        </is>
+      </c>
+      <c r="D361" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4009,7 +7589,17 @@
           <t>GRLARQS 146</t>
         </is>
       </c>
-      <c r="B362" t="n">
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Zawór dławiąco-zwrotny</t>
+        </is>
+      </c>
+      <c r="D362" t="n">
         <v>-2</v>
       </c>
     </row>
@@ -4019,7 +7609,17 @@
           <t>Z łbem 6-kąt M6x30</t>
         </is>
       </c>
-      <c r="B363" t="n">
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Śruba</t>
+        </is>
+      </c>
+      <c r="D363" t="n">
         <v>-2</v>
       </c>
     </row>
@@ -4029,7 +7629,17 @@
           <t>HGR15R L=270mm 5 otw. sym.</t>
         </is>
       </c>
-      <c r="B364" t="n">
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Szyna</t>
+        </is>
+      </c>
+      <c r="D364" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -4039,7 +7649,17 @@
           <t>sześciokątna M5</t>
         </is>
       </c>
-      <c r="B365" t="n">
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Nakrętka zwykła</t>
+        </is>
+      </c>
+      <c r="D365" t="n">
         <v>-2</v>
       </c>
     </row>

--- a/Braki z dictionary_report.xlsx
+++ b/Braki z dictionary_report.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet'!$A$3:$T$365</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet'!$A$3:$T$399</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A4:D365"/>
+  <dimension ref="A4:D399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47">
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -5406,37 +5406,37 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>PRT-A0073447</t>
+          <t>PRT-A0070449</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Gniazdo Dźwigni eCrafter Przesuwny LH</t>
+          <t>Wałek docisku</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>PRT-A0073447-Lustro</t>
+          <t>PRT-A0068958</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Gniazdo Dźwigni eCrafter Przesuwny RH</t>
+          <t>Pozycjoner</t>
         </is>
       </c>
       <c r="D254" t="n">
@@ -5446,7 +5446,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>PRT-A0073446</t>
+          <t>PRT-A0068945</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -5456,7 +5456,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Gniazdo Dźwigni eCrafter Przesuwny LH</t>
+          <t>Tuleja popychacza</t>
         </is>
       </c>
       <c r="D255" t="n">
@@ -5466,7 +5466,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>PRT-A0073446-Lustro</t>
+          <t>PRT-A0068931</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -5476,7 +5476,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Gniazdo Dźwigni eCrafter Przesuwny RH</t>
+          <t>Nakrętka specjalna</t>
         </is>
       </c>
       <c r="D256" t="n">
@@ -5486,17 +5486,17 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>PRT-A0073445</t>
+          <t>PRT-A0068930</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Gniazdo Dźwigni eCrafter Przesuwny LH</t>
+          <t>Pozycjoner</t>
         </is>
       </c>
       <c r="D257" t="n">
@@ -5506,17 +5506,17 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>PRT-A0073445-Lustro</t>
+          <t>PRT-A0068929</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Gniazdo Dźwigni eCrafter Przesuwny RH</t>
+          <t>Tulejka</t>
         </is>
       </c>
       <c r="D258" t="n">
@@ -5526,7 +5526,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>PRT-A0073441</t>
+          <t>PRT-A0068923</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -5536,7 +5536,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Gniazdo Dźwigni eCrafter Przesuwny LH</t>
+          <t>Popychacz</t>
         </is>
       </c>
       <c r="D259" t="n">
@@ -5546,7 +5546,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>PRT-A0073441-Lustro</t>
+          <t>PRT-A0072921</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Gniazdo Dźwigni eCrafter Przesuwny RH</t>
+          <t>Oś obrotu</t>
         </is>
       </c>
       <c r="D260" t="n">
@@ -5566,7 +5566,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>PRT-A0073440</t>
+          <t>PRT-A0069222</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -5576,7 +5576,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Gniazdo Dźwigni eCrafter Przesuwny LH</t>
+          <t>Tulejka pozycjonująca</t>
         </is>
       </c>
       <c r="D261" t="n">
@@ -5586,17 +5586,17 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>PRT-A0073440-Lustro</t>
+          <t>PRT-A0073447</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Gniazdo Dźwigni eCrafter Przesuwny RH</t>
+          <t>Gniazdo Dźwigni eCrafter Przesuwny LH</t>
         </is>
       </c>
       <c r="D262" t="n">
@@ -5606,12 +5606,12 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>PRT-A0072854-Lustro</t>
+          <t>PRT-A0073447-Lustro</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -5626,7 +5626,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>PRT-A0073444</t>
+          <t>PRT-A0073446</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -5646,7 +5646,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>PRT-A0073444-Lustro</t>
+          <t>PRT-A0073446-Lustro</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -5666,12 +5666,12 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>PRT-A0073443</t>
+          <t>PRT-A0073445</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -5686,12 +5686,12 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>PRT-A0073443-Lustro</t>
+          <t>PRT-A0073445-Lustro</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -5706,7 +5706,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>PRT-A0073442</t>
+          <t>PRT-A0073441</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -5726,7 +5726,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>PRT-A0073442-Lustro</t>
+          <t>PRT-A0073441-Lustro</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -5746,17 +5746,17 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>000.MAG.50 - M8 x L-F</t>
+          <t>PRT-A0073440</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Śruba separująca</t>
+          <t>Gniazdo Dźwigni eCrafter Przesuwny LH</t>
         </is>
       </c>
       <c r="D270" t="n">
@@ -5766,37 +5766,37 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>000.MAG.50 - M5 x L-C</t>
+          <t>PRT-A0073440-Lustro</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Śruba separujaca</t>
+          <t>Gniazdo Dźwigni eCrafter Przesuwny RH</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>000.MAG.50 - M6 x40</t>
+          <t>PRT-A0072854</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Śruba separująca</t>
+          <t>Gniazdo Dźwigni eCrafter Przesuwny LH</t>
         </is>
       </c>
       <c r="D272" t="n">
@@ -5806,27 +5806,27 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>000.MAG.90.07</t>
+          <t>PRT-A0072854-Lustro</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Tuleja centrująca</t>
+          <t>Gniazdo Dźwigni eCrafter Przesuwny RH</t>
         </is>
       </c>
       <c r="D273" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>000.MAG.50 - M5</t>
+          <t>PRT-A0072879</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -5836,7 +5836,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Nóżka</t>
+          <t>Osłona</t>
         </is>
       </c>
       <c r="D274" t="n">
@@ -5846,7 +5846,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>PRT-A0073372</t>
+          <t>PRT-A0072860</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -5856,7 +5856,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Obudowa Fluke 3-3</t>
+          <t>Płyta narzędzia ruchomego</t>
         </is>
       </c>
       <c r="D275" t="n">
@@ -5866,17 +5866,17 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>PRT-A0073371</t>
+          <t>PRT-A0072859</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Obudowa Fluke 1-3</t>
+          <t>Płyta Gniazda eCrafter RH</t>
         </is>
       </c>
       <c r="D276" t="n">
@@ -5886,17 +5886,17 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>PRT-A0073373</t>
+          <t>PRT-A0072855</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Obudowa Fluke 2-3</t>
+          <t>Gniazdo eCrafter LH</t>
         </is>
       </c>
       <c r="D277" t="n">
@@ -5906,7 +5906,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>ASM-A0011301</t>
+          <t>PRT-A0072923</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Skrzynka spawana Fluke</t>
+          <t>Dystans siłownika</t>
         </is>
       </c>
       <c r="D278" t="n">
@@ -5926,7 +5926,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>PRT-A0073479</t>
+          <t>PRT-A0072866</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -5936,17 +5936,17 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Kątownik mocujący</t>
+          <t>Mocowanie siłownika</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>PRT-A0073380</t>
+          <t>PRT-A0072864</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -5956,27 +5956,27 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Osłona tylna</t>
+          <t>Płyta</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>PRT-A0073374</t>
+          <t>PRT-A0072863</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Drzwiczki skrzynki</t>
+          <t>Mocowanie szyny</t>
         </is>
       </c>
       <c r="D281" t="n">
@@ -5986,7 +5986,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>PRT-A0073375</t>
+          <t>PRT-A0072852</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -5996,17 +5996,17 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Stopka</t>
+          <t>Płyta</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>PRT-A0073469</t>
+          <t>PRT-A0071396</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -6016,7 +6016,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Osłona lewa</t>
+          <t>Płyta pionowa</t>
         </is>
       </c>
       <c r="D283" t="n">
@@ -6026,7 +6026,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>PRT-A0073466</t>
+          <t>PRT-A0071248</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Osłona prawa</t>
+          <t>Płyta</t>
         </is>
       </c>
       <c r="D284" t="n">
@@ -6046,7 +6046,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>PRT-A0073465</t>
+          <t>PRT-A0071207</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -6056,7 +6056,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Osłona</t>
+          <t>Wałeczek</t>
         </is>
       </c>
       <c r="D285" t="n">
@@ -6066,7 +6066,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>PRT-A0073377</t>
+          <t>PRT-A0070448</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -6076,7 +6076,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Okno</t>
+          <t>Żebro</t>
         </is>
       </c>
       <c r="D286" t="n">
@@ -6086,7 +6086,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>PRT-A0073401</t>
+          <t>PRT-A0070446</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -6096,7 +6096,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Mocowanie magnesu</t>
+          <t>Płytka dolna</t>
         </is>
       </c>
       <c r="D287" t="n">
@@ -6106,7 +6106,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>PRT-A0073401 Lustro</t>
+          <t>PRT-A0070440</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -6116,7 +6116,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Mocowanie magnesu</t>
+          <t>Dystans blokady</t>
         </is>
       </c>
       <c r="D288" t="n">
@@ -6126,7 +6126,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>PRT-A0073379</t>
+          <t>PRT-A0070031</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Mocowanie ukośne</t>
+          <t>Płyta narzędzia</t>
         </is>
       </c>
       <c r="D289" t="n">
@@ -6146,7 +6146,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>PRT-A0073379 Lustro</t>
+          <t>PRT-A0069228</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -6156,7 +6156,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Mocowanie ukośne</t>
+          <t>Mocowanie szyny</t>
         </is>
       </c>
       <c r="D290" t="n">
@@ -6166,7 +6166,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>PRT-A0073376</t>
+          <t>PRT-A0069227</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -6176,17 +6176,17 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Mocowanie przód</t>
+          <t>Mocowanie siłownika</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>110M5</t>
+          <t>PRT-A0069225</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -6196,17 +6196,17 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Złączka kątowa M5</t>
+          <t>Mocowanie wózka</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Łożysko liniowe KB 0825UU (08x16x25)</t>
+          <t>PRT-A0068942</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -6216,37 +6216,37 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Łożysko liniowe (08x16x25)</t>
+          <t>Płyta dolna</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Domyślna</t>
+          <t>PRT-A0068940</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Stopki dociskowa wahliwa</t>
+          <t>Płytka mocowania siłownika</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>-6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Z 15</t>
+          <t>PRT-A0069224</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -6256,117 +6256,117 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Seger zewnętrzny</t>
+          <t>Trzpień</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>K0395.506</t>
+          <t>PRT-A0069223</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Stopki dociskowa wahliwa</t>
+          <t>Obracak</t>
         </is>
       </c>
       <c r="D296" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Sprężyna D12210</t>
+          <t>PRT-A0068932</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Sprężyna naciskowa</t>
+          <t>Łącznik</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>GRLARQS M56</t>
+          <t>PRT-A0068941</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Zawór dławiąco-zwrotny</t>
+          <t>Płytka mocowania siłownika</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>-12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>TCL20x60SG</t>
+          <t>PRT-A0072944</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Siłownik</t>
+          <t>Żebro</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>HGL-1_8-B</t>
+          <t>PRT-A0072943</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Zawór zwrotny sterowany</t>
+          <t>Mocowanie</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>CD55B20-150M</t>
+          <t>PRT-A0072942</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -6376,137 +6376,137 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Siłownik</t>
+          <t>Mocowanie siłownika</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>GRLARQS 186</t>
+          <t>PRT-A0072940</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Zawór dławiąco - zwrotny</t>
+          <t>Podkładka</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Wózek HGW20CCZOH</t>
+          <t>PRT-A0072939</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Wózek</t>
+          <t>Podpora</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>BMF00A2</t>
+          <t>PRT-A0072938</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Czujnik Typ. C</t>
+          <t>Mocowanie</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>JA20-8-125</t>
+          <t>PRT-A0072937</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Sprzęgło M8x1,25</t>
+          <t>Mocowanie zderzaków</t>
         </is>
       </c>
       <c r="D305" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>0.305m B15i.025.038.0 + 1025.12PZ.A1</t>
+          <t>PRT-A0072936</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Prowadnik kablowy</t>
+          <t>Płyta</t>
         </is>
       </c>
       <c r="D306" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>HGR20R L=340mm 6 otw. sym.</t>
+          <t>PRT-A0072935</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Szyna</t>
+          <t>Płyta</t>
         </is>
       </c>
       <c r="D307" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>RQSL M56</t>
+          <t>PRT-A0072934</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -6516,37 +6516,37 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Złącze katowe</t>
+          <t>Żebro</t>
         </is>
       </c>
       <c r="D308" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>CMSG-020</t>
+          <t>PRT-A0072933</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Czujnik Typ. T</t>
+          <t>Płyta</t>
         </is>
       </c>
       <c r="D309" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>HC-1 Cable Mount</t>
+          <t>PRT-A0072932</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -6556,37 +6556,37 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Mocowanie przewodu</t>
+          <t>Płyta</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>JB40-8-125</t>
+          <t>PRT-A0072930</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Końcówka kompensacyjna</t>
+          <t>Tulejka centrująca</t>
         </is>
       </c>
       <c r="D311" t="n">
-        <v>-2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Z 6</t>
+          <t>PRT-A0072922</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -6596,97 +6596,97 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Seger zewnętrzny</t>
+          <t>Obsada blokady sprężynki</t>
         </is>
       </c>
       <c r="D312" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>CD55B20-100M</t>
+          <t>PRT-A0072920</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Siłownik</t>
+          <t>Kostka zderzaka</t>
         </is>
       </c>
       <c r="D313" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Tulejka ślizgowa-xxx</t>
+          <t>PRT-A0072919</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Tulejka ślizgowa</t>
+          <t>Ogranicznik szyny</t>
         </is>
       </c>
       <c r="D314" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>D10940</t>
+          <t>PRT-A0072918</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Sprężyna naciskowa</t>
+          <t>Talerzyk</t>
         </is>
       </c>
       <c r="D315" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>JA15-5-080</t>
+          <t>PRT-A0072917</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Sprzęgło</t>
+          <t>Kostka czujnika</t>
         </is>
       </c>
       <c r="D316" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Y-G02</t>
+          <t>PRT-A0072873</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -6696,57 +6696,57 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Końcówka widełkowa</t>
+          <t>Wspornik blokady</t>
         </is>
       </c>
       <c r="D317" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>MGN9C</t>
+          <t>PRT-A0072872</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Wózek</t>
+          <t>Wspornik blokady</t>
         </is>
       </c>
       <c r="D318" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>MGN05H1R50Z0HM</t>
+          <t>PRT-A0072871</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Szyna</t>
+          <t>Mocowanie zderzaka</t>
         </is>
       </c>
       <c r="D319" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>PRT-A0072915</t>
+          <t>PRT-A0072870</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -6756,57 +6756,57 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Sprężyna eCrafter przesuwny LH</t>
+          <t>Mocowanie siłownika</t>
         </is>
       </c>
       <c r="D320" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>PRT-A0072914</t>
+          <t>PRT-A0072862</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Sprężyna eCrafter przesuwny RH</t>
+          <t>Wspornik blokady</t>
         </is>
       </c>
       <c r="D321" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>CDQ2WB20-10DMZ</t>
+          <t>PRT-A0071252</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Siłownik</t>
+          <t>Mocowanie</t>
         </is>
       </c>
       <c r="D322" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>MGNR9</t>
+          <t>PRT-A0069990</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -6816,17 +6816,17 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Szyna</t>
+          <t>Mocowanie</t>
         </is>
       </c>
       <c r="D323" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>7C0_843_641_A__DMU_TM__002_____ZSB_INNENBETAETIGU_SBT_______JTI_080422_12-21.02.2023</t>
+          <t>PRT-A0069226</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -6836,97 +6836,97 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Mocowanie odboju</t>
         </is>
       </c>
       <c r="D324" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>M-5HL-4</t>
+          <t>PRT-A0068946</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Szybkozłącze kątowe M5 - 4mm</t>
+          <t>Płyta pośrednia</t>
         </is>
       </c>
       <c r="D325" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>ACA0806-1</t>
+          <t>PRT-A0072929</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Amortyzator hydrauliczny</t>
+          <t>Bazwanie</t>
         </is>
       </c>
       <c r="D326" t="n">
-        <v>-5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>HGW15CCZOH</t>
+          <t>PRT-A0072928</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Wózek</t>
+          <t>Szczęka</t>
         </is>
       </c>
       <c r="D327" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>0.2m E2.10.20.018.0 + E2.100.20.12PZ.A3</t>
+          <t>PRT-A0072927</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Prowadnik kablowy</t>
+          <t>Chwytak beczki</t>
         </is>
       </c>
       <c r="D328" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>CQ-LZ12</t>
+          <t>PRT-A0072926</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -6936,197 +6936,197 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Łapy montażowe</t>
+          <t>Gniazdo</t>
         </is>
       </c>
       <c r="D329" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>_CDQ2A12-15(1_0)_BODY___</t>
+          <t>PRT-A0069192</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Bazowanie</t>
         </is>
       </c>
       <c r="D330" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>_CDQ2A12-15-(1_0)_CYROD___</t>
+          <t>PRT-A0069979</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Element sprzęgający</t>
         </is>
       </c>
       <c r="D331" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>MGN05H</t>
+          <t>PRT-A0068943</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Wózek</t>
+          <t>Element sprzęgający</t>
         </is>
       </c>
       <c r="D332" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>HGR15R L=200mm 4 otw. sym.</t>
+          <t>PRT-A0072945</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Szyna</t>
+          <t>Zderzak</t>
         </is>
       </c>
       <c r="D333" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>HGH15CAZOH</t>
+          <t>PRT-A0072916</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Wózek</t>
+          <t>Kostka podporowa</t>
         </is>
       </c>
       <c r="D334" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>A 8x7x100</t>
+          <t>PRT-A0072865</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Wpust pryzmatyczny</t>
+          <t>Kostka podporowa</t>
         </is>
       </c>
       <c r="D335" t="n">
-        <v>-5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>HGR15R L=140mm 3 otw. sym.</t>
+          <t>PRT-A0072861</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Szyna</t>
+          <t>Kostka podporowa</t>
         </is>
       </c>
       <c r="D336" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>sześciokątna M8</t>
+          <t>PRT-A0072856</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Nakrętka zwykła</t>
+          <t>Tulejka bazująca</t>
         </is>
       </c>
       <c r="D337" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Napęd obrotowy 1369117 DSM-16-270-P1-HD-A-B</t>
+          <t>PRT-A0070000</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Moduł wahadłowy</t>
+          <t>Element sprzęgający</t>
         </is>
       </c>
       <c r="D338" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>0.18m E2.10.16.028.0 + E2.100.16.12PZ.A2</t>
+          <t>PRT-A0069221</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -7136,77 +7136,77 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>0.18m E2.10.16.028.0 + E2.100.16.12PZ.A2</t>
+          <t>Dystans</t>
         </is>
       </c>
       <c r="D339" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Czujnik-173210 SME-10-KL-LED-24</t>
+          <t>PRT-A0068951</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Czujnik</t>
+          <t>Zabierak</t>
         </is>
       </c>
       <c r="D340" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>CD55B20-50M</t>
+          <t>PRT-A0068950</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Siłownik</t>
+          <t>Mocowanie popychacza</t>
         </is>
       </c>
       <c r="D341" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>000.MAG.50 - M8 x 35</t>
+          <t>PRT-A0068944</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Śruba separująca</t>
+          <t>Element sprzęgający</t>
         </is>
       </c>
       <c r="D342" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>SL-DSM-B</t>
+          <t>PRT-A0068935</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -7216,57 +7216,57 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Uchwyt czujnika</t>
+          <t>Gniazdo pina</t>
         </is>
       </c>
       <c r="D343" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Koncentrator BNI IOL-104-00-K006</t>
+          <t>PRT-A0073444</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Koncentrator</t>
+          <t>Gniazdo Dźwigni eCrafter Przesuwny LH</t>
         </is>
       </c>
       <c r="D344" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>HGR15R L=350mm 6 otw. sym.</t>
+          <t>PRT-A0073444-Lustro</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Szyna</t>
+          <t>Gniazdo Dźwigni eCrafter Przesuwny RH</t>
         </is>
       </c>
       <c r="D345" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>K0348.0706121</t>
+          <t>PRT-A0073443</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -7276,37 +7276,37 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Trzpień ustalający z uchwytem jednoskrzydełkowym</t>
+          <t>Gniazdo Dźwigni eCrafter Przesuwny LH</t>
         </is>
       </c>
       <c r="D346" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>093W302N08</t>
+          <t>PRT-A0073443-Lustro</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Kątownik 30x60</t>
+          <t>Gniazdo Dźwigni eCrafter Przesuwny RH</t>
         </is>
       </c>
       <c r="D347" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Wózek HGW15CCZOH</t>
+          <t>PRT-A0073442</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -7316,77 +7316,77 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Wózek</t>
+          <t>Gniazdo Dźwigni eCrafter Przesuwny LH</t>
         </is>
       </c>
       <c r="D348" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Czujnik-LR-ZB100C3P</t>
+          <t>PRT-A0073442-Lustro</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Czujnik optyczny</t>
+          <t>Gniazdo Dźwigni eCrafter Przesuwny RH</t>
         </is>
       </c>
       <c r="D349" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>HC-2 Cable Mount</t>
+          <t>PRT-A0072941</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Mocowanie przewodu</t>
+          <t>Blokada Pinu</t>
         </is>
       </c>
       <c r="D350" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>PRT-A0072877</t>
+          <t>PRT-A0072931</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Blokada sprężyny</t>
         </is>
       </c>
       <c r="D351" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>HLH16X60S</t>
+          <t>PRT-A0072924</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -7396,97 +7396,97 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Siłownik pneumatyczny</t>
+          <t>Blokada sprężynki</t>
         </is>
       </c>
       <c r="D352" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>A 8x7x80</t>
+          <t>PRT-A0072913</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Wpust pryzmatyczny</t>
+          <t>Gniazdo kołeczka</t>
         </is>
       </c>
       <c r="D353" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>PRT-A0072858</t>
+          <t>PRT-A0072977</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Gniazdo Dźwigni eCrafter Przesuwny LH</t>
+          <t>Mocowanie prowadnika</t>
         </is>
       </c>
       <c r="D354" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>K0232.20701</t>
+          <t>PRT-A0072975</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Uchwyt profilowany B</t>
+          <t>Mocowanie prowadnika</t>
         </is>
       </c>
       <c r="D355" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>DAS 30 75F05CR</t>
+          <t>PRT-A0072946</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Zawór dozujący</t>
+          <t>Osłona</t>
         </is>
       </c>
       <c r="D356" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>BMF0002</t>
+          <t>PRT-A0072878</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -7496,57 +7496,57 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Czujnik Typ. C</t>
+          <t>Mocowanie</t>
         </is>
       </c>
       <c r="D357" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>CD55B20-120M</t>
+          <t>PRT-A0072875</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>Siłownik</t>
+          <t>Mocowanie prowadnika</t>
         </is>
       </c>
       <c r="D358" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>CP96SDB40-70C</t>
+          <t>PRT-A0072874</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>Siłownik</t>
+          <t>Mocowanie prowadników</t>
         </is>
       </c>
       <c r="D359" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Z łbem 6-kąt M8x40</t>
+          <t>PRT-A0072869</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -7556,57 +7556,57 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Śruba</t>
+          <t>Wanienka na smar</t>
         </is>
       </c>
       <c r="D360" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>AB 10x8x32</t>
+          <t>PRT-A0072868</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>Wpust pryzmatyczny</t>
+          <t>Przekładka</t>
         </is>
       </c>
       <c r="D361" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>GRLARQS 146</t>
+          <t>PRT-A0072867</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Zawór dławiąco-zwrotny</t>
+          <t>Mocowanie</t>
         </is>
       </c>
       <c r="D362" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Z łbem 6-kąt M6x30</t>
+          <t>PRT-A0072718</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -7616,55 +7616,735 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Śruba</t>
+          <t>Mocowanie</t>
         </is>
       </c>
       <c r="D363" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>HGR15R L=270mm 5 otw. sym.</t>
+          <t>PRT-A0072038</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Szyna</t>
+          <t>Mocowanie prowadnika</t>
         </is>
       </c>
       <c r="D364" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>sześciokątna M5</t>
+          <t>PRT-A0072036</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>A</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Nakrętka zwykła</t>
+          <t>Mocowanie prowadnika</t>
         </is>
       </c>
       <c r="D365" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>PRT-A0071206</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Osłona</t>
+        </is>
+      </c>
+      <c r="D366" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>PRT-A0070603</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Pierścień</t>
+        </is>
+      </c>
+      <c r="D367" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>PRT-A0070445</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Mocowanie prowadnika</t>
+        </is>
+      </c>
+      <c r="D368" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>PRT-A0070444</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Mocowanie prowadnika</t>
+        </is>
+      </c>
+      <c r="D369" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>PRT-A0070438</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Oprawa łożysk</t>
+        </is>
+      </c>
+      <c r="D370" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>000.MAG.50 - M8 x L-F</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Śruba separująca</t>
+        </is>
+      </c>
+      <c r="D371" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>000.MAG.50 - M5 x L-C</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Śruba separujaca</t>
+        </is>
+      </c>
+      <c r="D372" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>000.MAG.69.18</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Kołek pozycjonujący fi8</t>
+        </is>
+      </c>
+      <c r="D373" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>000.MAG.50 - M6 x40</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Śruba separująca</t>
+        </is>
+      </c>
+      <c r="D374" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>000.MAG.90.07</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Tuleja centrująca</t>
+        </is>
+      </c>
+      <c r="D375" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>000.MAG.90.06</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Tuleja centrująca</t>
+        </is>
+      </c>
+      <c r="D376" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>000.MAG.50 - M5</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Nóżka</t>
+        </is>
+      </c>
+      <c r="D377" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>000.MAG.50 - M8</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Nóżka</t>
+        </is>
+      </c>
+      <c r="D378" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>000.MAG.22.M8</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Kostka zderzaka</t>
+        </is>
+      </c>
+      <c r="D379" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>PRT-A0073372</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Obudowa Fluke 3-3</t>
+        </is>
+      </c>
+      <c r="D380" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>PRT-A0073371</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Obudowa Fluke 1-3</t>
+        </is>
+      </c>
+      <c r="D381" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>PRT-A0073373</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Obudowa Fluke 2-3</t>
+        </is>
+      </c>
+      <c r="D382" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>ASM-A0011301</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Skrzynka spawana Fluke</t>
+        </is>
+      </c>
+      <c r="D383" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>PRT-A0073479</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Kątownik mocujący</t>
+        </is>
+      </c>
+      <c r="D384" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>PRT-A0073380</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Osłona tylna</t>
+        </is>
+      </c>
+      <c r="D385" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>PRT-A0073374</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>Drzwiczki skrzynki</t>
+        </is>
+      </c>
+      <c r="D386" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>PRT-A0073375</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Stopka</t>
+        </is>
+      </c>
+      <c r="D387" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>PRT-A0073469</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Osłona lewa</t>
+        </is>
+      </c>
+      <c r="D388" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>PRT-A0073466</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>Osłona prawa</t>
+        </is>
+      </c>
+      <c r="D389" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>PRT-A0073465</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>Osłona</t>
+        </is>
+      </c>
+      <c r="D390" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>PRT-A0073377</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Okno</t>
+        </is>
+      </c>
+      <c r="D391" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>PRT-A0073401</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>Mocowanie magnesu</t>
+        </is>
+      </c>
+      <c r="D392" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>PRT-A0073401 Lustro</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>Mocowanie magnesu</t>
+        </is>
+      </c>
+      <c r="D393" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>PRT-A0073379</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Mocowanie ukośne</t>
+        </is>
+      </c>
+      <c r="D394" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>PRT-A0073379 Lustro</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>Mocowanie ukośne</t>
+        </is>
+      </c>
+      <c r="D395" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>PRT-A0073376</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>Mocowanie przód</t>
+        </is>
+      </c>
+      <c r="D396" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>PRT-A0065981</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Mocowanie</t>
+        </is>
+      </c>
+      <c r="D397" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>PRT-A0062094</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Pozycjoner</t>
+        </is>
+      </c>
+      <c r="D398" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>PRT-A0065974</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Element sprzegajacy</t>
+        </is>
+      </c>
+      <c r="D399" t="n">
         <v>-2</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:T365"/>
+  <autoFilter ref="A3:T399"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>